--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sheldon S Cottrell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>22/02/2019</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1651,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1698,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>09/11/2019</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1940,7 +1990,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -1948,7 +1997,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1988,7 +2037,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2136,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/02/2020</t>
@@ -2096,7 +2143,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2352,7 +2398,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2391,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2413,7 +2459,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2450,7 +2496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2487,7 +2533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2524,7 +2570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2561,7 +2607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2598,7 +2644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2635,7 +2681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2672,7 +2718,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2709,7 +2755,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2746,7 +2792,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2783,7 +2829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2820,7 +2866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2857,7 +2903,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2894,7 +2940,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2931,7 +2977,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2968,7 +3014,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3005,7 +3051,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3042,7 +3088,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3079,7 +3125,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3116,7 +3162,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3153,7 +3199,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3190,7 +3236,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3227,7 +3273,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3264,7 +3310,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3301,7 +3347,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3338,7 +3384,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3375,7 +3421,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3412,7 +3458,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3449,7 +3495,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3486,7 +3532,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3523,7 +3569,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3560,7 +3606,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3597,7 +3643,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3634,7 +3680,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3671,7 +3717,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3708,7 +3754,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3745,7 +3791,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3773,6 +3819,411 @@
           <t>1/34</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.99%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.10%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3877,10 +3878,6 @@
           <t>4325</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3893,109 +3890,388 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.99%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.10%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.99%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4003,27 +4279,14 @@
           <t>4360</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.10%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4033,15 +4296,14 @@
           <t>4377</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4051,15 +4313,14 @@
           <t>4378</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4071,13 +4332,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4085,15 +4339,14 @@
           <t>4387</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4103,15 +4356,14 @@
           <t>4388</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4121,15 +4373,14 @@
           <t>4391</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4139,13 +4390,14 @@
           <t>4394</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4155,15 +4407,12 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4173,9 +4422,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4183,11 +4429,16 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4195,11 +4446,12 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4207,11 +4459,16 @@
           <t>4484</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4221,9 +4478,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4249.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -766,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>22/02/2019</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -1006,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/03/2019</t>
@@ -1053,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1152,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1251,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2019</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -1362,7 +1369,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1652,6 +1660,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -1699,6 +1708,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -1798,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -1845,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>09/11/2019</t>
@@ -1892,6 +1904,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1991,6 +2004,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -2038,6 +2052,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -2137,6 +2152,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/02/2020</t>
@@ -2340,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -3824,662 +3841,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.99%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.10%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>